--- a/src/test/resources/RegisterData.xlsx
+++ b/src/test/resources/RegisterData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -23,73 +23,40 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>janedoe@example.com</t>
+  </si>
+  <si>
+    <t>password456</t>
+  </si>
+  <si>
+    <t>15/05/1995</t>
   </si>
   <si>
     <t>First name</t>
   </si>
   <si>
     <t>Last name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>testuser@example.com</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>123 Test Street, Test Company</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>90001</t>
-  </si>
-  <si>
-    <t>051111111111</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>janedoe@example.com</t>
-  </si>
-  <si>
-    <t>password456</t>
-  </si>
-  <si>
-    <t>15/05/1995</t>
   </si>
   <si>
     <t>456 Jane Street, P.O. Box 789</t>
@@ -152,24 +119,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.40234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.25390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.2421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.1171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.54296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.75" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.61328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.71484375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.3828125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="14.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="27.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.984375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.6953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -200,90 +164,43 @@
       <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="0">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
